--- a/meetkunde/AAAmeetkunde.xlsx
+++ b/meetkunde/AAAmeetkunde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/meetkunde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A2D905-18B8-417E-A5BE-30F3D07D679C}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1A8D2EA-D5C5-42C5-A3F9-B847BD7398BA}"/>
   <bookViews>
-    <workbookView xWindow="50475" yWindow="7575" windowWidth="14400" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="78360" yWindow="17040" windowWidth="14400" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t xml:space="preserve">Balk </t>
   </si>
@@ -102,9 +102,6 @@
     <t>Straal</t>
   </si>
   <si>
-    <t>Top (ruimte figuur)</t>
-  </si>
-  <si>
     <t>Uitslag</t>
   </si>
   <si>
@@ -235,6 +232,36 @@
   </si>
   <si>
     <t>Evenwijdige lijnen</t>
+  </si>
+  <si>
+    <t>punt cirkel</t>
+  </si>
+  <si>
+    <t>zijvlakken, top, hoekpunt, driehoek, grondvlak</t>
+  </si>
+  <si>
+    <t>Ribben, top, piramide, hoekpunt, grondvlak</t>
+  </si>
+  <si>
+    <t>Cirkel, middelpunt</t>
+  </si>
+  <si>
+    <t>Ruimtefiguur, grondvlak, opstaande zijvlakken, top</t>
+  </si>
+  <si>
+    <t>Zijvlakken, rechthoeken, vierkanten, grondvlak, bovenvlak</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Lijn, middelpunt, cirkel, diameter</t>
+  </si>
+  <si>
+    <t>Top (ruimtefiguur)</t>
+  </si>
+  <si>
+    <t>Hoekpunt, piramide, kegel</t>
   </si>
 </sst>
 </file>
@@ -560,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -585,15 +612,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -601,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -609,49 +636,49 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -659,12 +686,12 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -672,20 +699,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -693,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -701,20 +728,20 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -722,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -730,12 +757,12 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -743,83 +770,107 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -827,66 +878,80 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>23</v>
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>25</v>
+      <c r="B42" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>26</v>
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>30</v>
+      <c r="B47" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
+      <c r="B50" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/meetkunde/AAAmeetkunde.xlsx
+++ b/meetkunde/AAAmeetkunde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/meetkunde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1A8D2EA-D5C5-42C5-A3F9-B847BD7398BA}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE48A163-C91D-4BCA-9B5B-66E1D59699DB}"/>
   <bookViews>
-    <workbookView xWindow="78360" yWindow="17040" windowWidth="14400" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32490" yWindow="2730" windowWidth="32400" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t xml:space="preserve">Balk </t>
   </si>
@@ -39,9 +39,6 @@
     <t>Cirkel</t>
   </si>
   <si>
-    <t>Gelijkbenige rechthoekige driehoek</t>
-  </si>
-  <si>
     <t>Gradenboog</t>
   </si>
   <si>
@@ -66,12 +63,6 @@
     <t>Middelpunt</t>
   </si>
   <si>
-    <t>Opstaande ribben</t>
-  </si>
-  <si>
-    <t>Opstaande zijvlakken</t>
-  </si>
-  <si>
     <t>Passer</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>Vierkant</t>
   </si>
   <si>
-    <t>Vlakke figuren</t>
-  </si>
-  <si>
     <t>Zijden</t>
   </si>
   <si>
@@ -231,9 +219,6 @@
     <t>Oppervlakte</t>
   </si>
   <si>
-    <t>Evenwijdige lijnen</t>
-  </si>
-  <si>
     <t>punt cirkel</t>
   </si>
   <si>
@@ -258,10 +243,34 @@
     <t>Lijn, middelpunt, cirkel, diameter</t>
   </si>
   <si>
-    <t>Top (ruimtefiguur)</t>
-  </si>
-  <si>
     <t>Hoekpunt, piramide, kegel</t>
+  </si>
+  <si>
+    <t>vlak figuur, zijden, hoekpunten, som, hoeken, graden.</t>
+  </si>
+  <si>
+    <t>Lijnen, vlak figuur, hoekpunten</t>
+  </si>
+  <si>
+    <t>ruimtefiguur</t>
+  </si>
+  <si>
+    <t>Gelijkbenigerechthoekigedriehoek</t>
+  </si>
+  <si>
+    <t>Opstaanderibben</t>
+  </si>
+  <si>
+    <t>Opstaandezijvlakken</t>
+  </si>
+  <si>
+    <t>Topruimtefiguur</t>
+  </si>
+  <si>
+    <t>Vlakkefiguren</t>
+  </si>
+  <si>
+    <t>Evenwijdigelijnen</t>
   </si>
 </sst>
 </file>
@@ -589,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -612,15 +621,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -628,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -636,322 +645,332 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>25</v>
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>27</v>
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>30</v>
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/meetkunde/AAAmeetkunde.xlsx
+++ b/meetkunde/AAAmeetkunde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/meetkunde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE48A163-C91D-4BCA-9B5B-66E1D59699DB}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D6B34B-213B-49A3-A59D-CD36637FAB7B}"/>
   <bookViews>
-    <workbookView xWindow="32490" yWindow="2730" windowWidth="32400" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44235" yWindow="2865" windowWidth="24300" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t xml:space="preserve">Balk </t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Evenwijdigelijnen</t>
+  </si>
+  <si>
+    <t>lijn, hoekpunt, ribben, zijden, vlakkefiguren, ruimtefiguren</t>
+  </si>
+  <si>
+    <t>Kegel</t>
   </si>
 </sst>
 </file>
@@ -596,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +626,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -644,7 +650,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -652,7 +658,7 @@
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -660,7 +666,7 @@
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -668,7 +674,7 @@
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -686,7 +692,7 @@
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -728,7 +734,7 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -736,7 +742,7 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -747,229 +753,237 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
         <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>74</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/meetkunde/AAAmeetkunde.xlsx
+++ b/meetkunde/AAAmeetkunde.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/meetkunde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D6B34B-213B-49A3-A59D-CD36637FAB7B}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED6A37B-3715-4D9D-9879-2A6EB42BE34B}"/>
   <bookViews>
-    <workbookView xWindow="44235" yWindow="2865" windowWidth="24300" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t xml:space="preserve">Balk </t>
   </si>
@@ -75,9 +75,6 @@
     <t>punt</t>
   </si>
   <si>
-    <t>Rechte hoek</t>
-  </si>
-  <si>
     <t>Rechthoek</t>
   </si>
   <si>
@@ -277,6 +274,66 @@
   </si>
   <si>
     <t>Kegel</t>
+  </si>
+  <si>
+    <t>Lijnstuk</t>
+  </si>
+  <si>
+    <t>Halvelijn</t>
+  </si>
+  <si>
+    <t>Rechtehoek</t>
+  </si>
+  <si>
+    <t>Loodrecht</t>
+  </si>
+  <si>
+    <t>Loodlijn</t>
+  </si>
+  <si>
+    <t>Loodrechtteken</t>
+  </si>
+  <si>
+    <t>Rechtehoekteken</t>
+  </si>
+  <si>
+    <t>Evenwijdigheidsteken</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>Benen</t>
+  </si>
+  <si>
+    <t>Gestrektehoek</t>
+  </si>
+  <si>
+    <t>Scherpehoek</t>
+  </si>
+  <si>
+    <t>Stompehoek</t>
+  </si>
+  <si>
+    <t>Kijklijnen</t>
+  </si>
+  <si>
+    <t>Overstaandehoeken</t>
+  </si>
+  <si>
+    <t>Kijkhoek</t>
+  </si>
+  <si>
+    <t>Lijn, Punt, Benen, Hoeken</t>
+  </si>
+  <si>
+    <t>Lijnen, rechte hoek, hoek, rechtehoekteken, loodrechtteken</t>
+  </si>
+  <si>
+    <t>Punt, Lijn, Loodrecht</t>
+  </si>
+  <si>
+    <t>hoek, halve lijnen, hoekpunt</t>
   </si>
 </sst>
 </file>
@@ -318,10 +375,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -337,6 +393,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,392 +662,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
-    <col min="2" max="2" width="75.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.46484375" customWidth="1"/>
+    <col min="2" max="2" width="75.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B71">
+    <sortCondition ref="A10:A71"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
